--- a/Raw_Data.xlsx
+++ b/Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B3FCCF-1D3B-4AC5-BA42-640FFD7EB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA9926-8457-4892-97DF-C261BB1E03F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,7 +958,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,17 +989,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1053,19 +1066,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,14 +1363,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E98" sqref="A2:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82.9140625" customWidth="1"/>
-    <col min="2" max="2" width="53.25" customWidth="1"/>
+    <col min="2" max="2" width="97.9140625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="59.5" customWidth="1"/>
@@ -1380,1652 +1393,1652 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="7">
-        <v>2024</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D70" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="D79" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D80" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="D82" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D83" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="D83" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D84" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="D87" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="91.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="104.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="D91" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="117.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="D93" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D94" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="D94" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="78.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="65.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="D97" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="130.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="7">
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="3">
         <v>2022</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="4" t="s">
         <v>302</v>
       </c>
     </row>

--- a/Raw_Data.xlsx
+++ b/Raw_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25244\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53864E-B0BF-483B-9849-1E2652AB76B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D03FAD-E4E5-41D3-BD62-561D9F4DA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="393">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,12 +413,6 @@
     <t>https://arxiv.org/abs/2408.03827</t>
   </si>
   <si>
-    <t>Advancing Requirements Engineering through Generative AI: Assessing the Role of LLMs</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2310.13976</t>
-  </si>
-  <si>
     <t>AgentCoder: Multi-Agent Code Generation with Effective Testing and Self-optimisation</t>
   </si>
   <si>
@@ -1011,10 +1005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cheryl Lee, Chunqiu Steven Xia, Longji Yang, Jen-tse Huang, Zhouruixin Zhu, Lingming Zhang, Michael R. Lyu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1244,10 +1234,6 @@
   </si>
   <si>
     <t>Forough Mehralian, Titus Barik, Jeff Nichols, Amanda Swearngin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chetan Arora, John Grundy, Mohamed Abdelrazek</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1861,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1895,10 +1881,10 @@
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -1915,13 +1901,13 @@
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1930,18 +1916,18 @@
         <v>2024</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1955,10 +1941,10 @@
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>9</v>
@@ -1975,10 +1961,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>11</v>
@@ -1995,13 +1981,13 @@
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -2015,10 +2001,10 @@
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>14</v>
@@ -2035,10 +2021,10 @@
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>16</v>
@@ -2055,10 +2041,10 @@
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>19</v>
@@ -2075,10 +2061,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>21</v>
@@ -2095,10 +2081,10 @@
     </row>
     <row r="12" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>23</v>
@@ -2115,10 +2101,10 @@
     </row>
     <row r="13" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>26</v>
@@ -2135,10 +2121,10 @@
     </row>
     <row r="14" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>29</v>
@@ -2155,10 +2141,10 @@
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>31</v>
@@ -2175,10 +2161,10 @@
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>33</v>
@@ -2195,10 +2181,10 @@
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>35</v>
@@ -2215,10 +2201,10 @@
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>37</v>
@@ -2235,10 +2221,10 @@
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>39</v>
@@ -2255,10 +2241,10 @@
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>41</v>
@@ -2275,10 +2261,10 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>43</v>
@@ -2295,10 +2281,10 @@
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>45</v>
@@ -2315,13 +2301,13 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -2335,10 +2321,10 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>48</v>
@@ -2355,10 +2341,10 @@
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>50</v>
@@ -2375,10 +2361,10 @@
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>52</v>
@@ -2395,10 +2381,10 @@
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>54</v>
@@ -2415,10 +2401,10 @@
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>56</v>
@@ -2435,10 +2421,10 @@
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>59</v>
@@ -2455,10 +2441,10 @@
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>61</v>
@@ -2475,10 +2461,10 @@
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>63</v>
@@ -2495,10 +2481,10 @@
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>65</v>
@@ -2515,10 +2501,10 @@
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>67</v>
@@ -2535,10 +2521,10 @@
     </row>
     <row r="34" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>69</v>
@@ -2555,10 +2541,10 @@
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>71</v>
@@ -2575,10 +2561,10 @@
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>73</v>
@@ -2595,10 +2581,10 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>76</v>
@@ -2615,10 +2601,10 @@
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>78</v>
@@ -2635,10 +2621,10 @@
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>80</v>
@@ -2655,10 +2641,10 @@
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>82</v>
@@ -2675,10 +2661,10 @@
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>84</v>
@@ -2695,10 +2681,10 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>86</v>
@@ -2715,13 +2701,13 @@
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -2735,10 +2721,10 @@
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>89</v>
@@ -2755,10 +2741,10 @@
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>91</v>
@@ -2775,10 +2761,10 @@
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>93</v>
@@ -2795,10 +2781,10 @@
     </row>
     <row r="47" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>95</v>
@@ -2815,10 +2801,10 @@
     </row>
     <row r="48" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>98</v>
@@ -2835,10 +2821,10 @@
     </row>
     <row r="49" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>39</v>
@@ -2855,13 +2841,13 @@
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -2875,10 +2861,10 @@
     </row>
     <row r="51" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>103</v>
@@ -2895,10 +2881,10 @@
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
@@ -2915,10 +2901,10 @@
     </row>
     <row r="53" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>107</v>
@@ -2935,10 +2921,10 @@
     </row>
     <row r="54" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>109</v>
@@ -2955,10 +2941,10 @@
     </row>
     <row r="55" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>111</v>
@@ -2975,10 +2961,10 @@
     </row>
     <row r="56" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>113</v>
@@ -2995,10 +2981,10 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>115</v>
@@ -3015,10 +3001,10 @@
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>117</v>
@@ -3035,13 +3021,13 @@
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>119</v>
@@ -3055,13 +3041,13 @@
     </row>
     <row r="60" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -3075,10 +3061,10 @@
     </row>
     <row r="61" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>122</v>
@@ -3095,10 +3081,10 @@
     </row>
     <row r="62" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>124</v>
@@ -3115,36 +3101,36 @@
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E63" s="3">
         <v>2023</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="E64" s="3">
         <v>2023</v>
@@ -3155,10 +3141,10 @@
     </row>
     <row r="65" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>131</v>
@@ -3175,10 +3161,10 @@
     </row>
     <row r="66" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>133</v>
@@ -3195,76 +3181,76 @@
     </row>
     <row r="67" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E67" s="3">
         <v>2023</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E68" s="3">
         <v>2023</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69" s="3">
         <v>2023</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="E70" s="3">
         <v>2023</v>
@@ -3275,53 +3261,53 @@
     </row>
     <row r="71" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="E71" s="3">
         <v>2023</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="E72" s="3">
         <v>2023</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>393</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -3335,16 +3321,16 @@
     </row>
     <row r="74" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E74" s="3">
         <v>2023</v>
@@ -3355,16 +3341,16 @@
     </row>
     <row r="75" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E75" s="3">
         <v>2023</v>
@@ -3375,16 +3361,16 @@
     </row>
     <row r="76" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E76" s="3">
         <v>2023</v>
@@ -3395,36 +3381,36 @@
     </row>
     <row r="77" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E77" s="3">
         <v>2023</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>394</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E78" s="3">
         <v>2023</v>
@@ -3435,16 +3421,16 @@
     </row>
     <row r="79" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E79" s="3">
         <v>2023</v>
@@ -3455,16 +3441,16 @@
     </row>
     <row r="80" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E80" s="3">
         <v>2023</v>
@@ -3475,16 +3461,16 @@
     </row>
     <row r="81" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E81" s="3">
         <v>2023</v>
@@ -3495,33 +3481,33 @@
     </row>
     <row r="82" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E82" s="3">
         <v>2023</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -3535,50 +3521,50 @@
     </row>
     <row r="84" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>171</v>
+        <v>392</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E84" s="3">
         <v>2023</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>172</v>
+      <c r="F84" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="E85" s="3">
         <v>2023</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>174</v>
@@ -3595,10 +3581,10 @@
     </row>
     <row r="87" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>176</v>
@@ -3615,16 +3601,16 @@
     </row>
     <row r="88" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E88" s="3">
         <v>2023</v>
@@ -3635,16 +3621,16 @@
     </row>
     <row r="89" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>180</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E89" s="3">
         <v>2023</v>
@@ -3655,16 +3641,16 @@
     </row>
     <row r="90" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E90" s="3">
         <v>2023</v>
@@ -3675,16 +3661,16 @@
     </row>
     <row r="91" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E91" s="3">
         <v>2023</v>
@@ -3695,16 +3681,16 @@
     </row>
     <row r="92" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>186</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="E92" s="3">
         <v>2023</v>
@@ -3715,83 +3701,66 @@
     </row>
     <row r="93" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="E93" s="3">
         <v>2023</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E94" s="3">
         <v>2023</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E95" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="3">
         <v>2022</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="F95" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3813,8 +3782,8 @@
     <hyperlink ref="F59" r:id="rId15" xr:uid="{64982E52-E289-4281-8A06-E584999143A2}"/>
     <hyperlink ref="F60" r:id="rId16" xr:uid="{EF284994-DFDA-4D62-A4AA-5D1E853EEDC3}"/>
     <hyperlink ref="F61" r:id="rId17" xr:uid="{CEA0AEA9-29AB-43A4-8E2D-F0661CE972A1}"/>
-    <hyperlink ref="F94" r:id="rId18" xr:uid="{7F4D5E21-1332-483F-A474-1C5AC0109E4B}"/>
-    <hyperlink ref="F95" r:id="rId19" xr:uid="{17E531BA-A754-46D9-A690-EE9AE12DCDEC}"/>
+    <hyperlink ref="F93" r:id="rId18" xr:uid="{7F4D5E21-1332-483F-A474-1C5AC0109E4B}"/>
+    <hyperlink ref="F94" r:id="rId19" xr:uid="{17E531BA-A754-46D9-A690-EE9AE12DCDEC}"/>
     <hyperlink ref="F3" r:id="rId20" xr:uid="{F14756AD-6991-45DD-9B60-29A611CF0F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
